--- a/用例数据/沪权/对冲/测试结果.xlsx
+++ b/用例数据/沪权/对冲/测试结果.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="futuretradinglog" sheetId="1" r:id="rId1"/>
     <sheet name="futurepositiondetail2022" sheetId="2" r:id="rId2"/>
     <sheet name="futureposition2022" sheetId="3" r:id="rId3"/>
     <sheet name="futureposition" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="futurepositiondetail" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="216">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -668,6 +668,10 @@
   </si>
   <si>
     <t>101.00000000</t>
+  </si>
+  <si>
+    <t>10002508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -995,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1363,7 @@
         <v>112</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>114</v>
@@ -2895,7 +2899,7 @@
   <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3247,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/用例数据/沪权/对冲/测试结果.xlsx
+++ b/用例数据/沪权/对冲/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="futuretradinglog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="218">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -672,6 +672,12 @@
   <si>
     <t>10002508</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230201000000</t>
+  </si>
+  <si>
+    <t>103.00000000</t>
   </si>
 </sst>
 </file>
@@ -1000,12 +1006,12 @@
   <dimension ref="A1:CY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>213</v>
       </c>
@@ -1818,18 +1824,18 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,16 +1847,16 @@
   <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1867,106 +1873,121 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
@@ -1983,7 +2004,7 @@
         <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>107</v>
@@ -2091,7 +2112,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -2108,7 +2129,7 @@
         <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>107</v>
@@ -2135,22 +2156,22 @@
         <v>113</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>163</v>
@@ -2159,7 +2180,7 @@
         <v>128</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>115</v>
@@ -2171,10 +2192,10 @@
         <v>133</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>119</v>
@@ -2216,7 +2237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -2233,7 +2254,7 @@
         <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>107</v>
@@ -2260,22 +2281,22 @@
         <v>113</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>163</v>
@@ -2284,7 +2305,7 @@
         <v>128</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>115</v>
@@ -2296,10 +2317,10 @@
         <v>133</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>119</v>
@@ -2341,16 +2362,16 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2362,12 +2383,12 @@
   <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2537,9 +2558,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
@@ -2590,7 +2611,7 @@
         <v>128</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>119</v>
@@ -2643,9 +2664,6 @@
       <c r="AJ2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="AL2" s="1" t="s">
         <v>124</v>
       </c>
@@ -2704,9 +2722,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
@@ -2757,7 +2775,7 @@
         <v>128</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>124</v>
@@ -2808,10 +2826,7 @@
         <v>126</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>124</v>
@@ -2871,23 +2886,23 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2902,9 +2917,9 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3071,7 +3086,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -3235,12 +3250,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3255,9 +3270,9 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3370,7 +3385,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -3477,12 +3492,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪权/对冲/测试结果.xlsx
+++ b/用例数据/沪权/对冲/测试结果.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="218">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -340,9 +340,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>20221214235959</t>
-  </si>
-  <si>
     <t>000001</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
     <t>20221114142943</t>
   </si>
   <si>
-    <t>1000028640.000</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -649,35 +643,40 @@
     <t>01</t>
   </si>
   <si>
-    <t>-1.00</t>
-  </si>
-  <si>
     <t>-1010000.00</t>
   </si>
   <si>
     <t>-20000.00</t>
   </si>
   <si>
-    <t>30250013</t>
-  </si>
-  <si>
-    <t>20221215180555</t>
-  </si>
-  <si>
-    <t>30250014</t>
-  </si>
-  <si>
     <t>101.00000000</t>
   </si>
   <si>
-    <t>10002508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230201000000</t>
-  </si>
-  <si>
     <t>103.00000000</t>
+  </si>
+  <si>
+    <t>20230224000000</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>30001109</t>
+  </si>
+  <si>
+    <t>20230224235959</t>
+  </si>
+  <si>
+    <t>20230225104347</t>
+  </si>
+  <si>
+    <t>1001579223.780</t>
+  </si>
+  <si>
+    <t>30001110</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1005,7 @@
   <dimension ref="A1:CY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1324,258 +1323,258 @@
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BC2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="CJ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CY2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>103</v>
@@ -1584,244 +1583,244 @@
         <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CU3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AL3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CS3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CU3" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="CV3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1847,7 +1846,7 @@
   <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1924,7 +1923,7 @@
         <v>39</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>20</v>
@@ -1936,430 +1935,430 @@
         <v>80</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="AL2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="AN3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="Q4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="AQ4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2383,7 +2382,7 @@
   <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2414,7 +2413,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -2423,13 +2422,13 @@
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -2444,37 +2443,37 @@
         <v>39</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>36</v>
@@ -2486,404 +2485,404 @@
         <v>22</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BA3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2914,7 +2913,7 @@
   <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2942,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -2951,13 +2950,13 @@
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>18</v>
@@ -2972,37 +2971,37 @@
         <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>36</v>
@@ -3014,240 +3013,237 @@
         <v>22</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3322,7 +3318,7 @@
         <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>20</v>
@@ -3334,162 +3330,162 @@
         <v>80</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="AF2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
